--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsl\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D69CD-A6B9-46BB-8A31-0A9DDAA38125}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFEA347-A6B1-4356-80DF-6E32AC51A591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>GunID[.!][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,40 @@
   </si>
   <si>
     <t>Gun:Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪对应的预制体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameThrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Matter</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Spazer</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Pistol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,27 +531,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,31 +560,34 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,283 +595,310 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10005</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>40</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10006</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10007</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
     </row>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFEA347-A6B1-4356-80DF-6E32AC51A591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E867317E-1D29-49EF-875B-717C472D251F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E867317E-1D29-49EF-875B-717C472D251F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6B62B-E5CE-4F16-97E1-4ECC3DF2F186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G8">
         <v>1</v>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6B62B-E5CE-4F16-97E1-4ECC3DF2F186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594011D-3ADE-4D3E-8C60-D55801011271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594011D-3ADE-4D3E-8C60-D55801011271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD9E40-E660-4D2A-8FBA-9A72E8723C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Bullet_Rocket</t>
-  </si>
-  <si>
-    <t>Bullet_Rocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,6 +203,10 @@
   </si>
   <si>
     <t>Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Cannon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +535,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -595,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -630,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -665,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -689,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -700,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -735,7 +736,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -770,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -805,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>11</v>
@@ -829,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -840,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -864,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -875,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>22</v>
@@ -921,7 +922,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD9E40-E660-4D2A-8FBA-9A72E8723C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15241C15-F047-4130-B0B4-4FE145AF7FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>GunID[.!][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,30 @@
   </si>
   <si>
     <t>Bullet_Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSpeed[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRateOfFire[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大射击频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹偏转角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,17 +567,19 @@
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,25 +596,34 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,25 +640,34 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -640,25 +684,34 @@
         <v>2</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>250</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
+        <v>400</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -672,28 +725,37 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -707,28 +769,37 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>30</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -744,26 +815,26 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>15</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -779,26 +850,26 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>15</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -814,26 +885,26 @@
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>300</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>40</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -849,26 +920,26 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10007</v>
       </c>
@@ -884,22 +955,22 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>15</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>32</v>
       </c>
     </row>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15241C15-F047-4130-B0B4-4FE145AF7FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AC087-E311-45D1-AB9B-6785718EEA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>GunID[.!][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,26 +112,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>镭射枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物质枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲锋枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火箭筒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙击枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础射击频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,22 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Rocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,19 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>Matter</t>
-  </si>
-  <si>
     <t>Mg</t>
-  </si>
-  <si>
-    <t>Rocket</t>
-  </si>
-  <si>
-    <t>Spazer</t>
   </si>
   <si>
     <t>Cannon</t>
@@ -556,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -596,16 +552,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -631,28 +587,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -675,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -708,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -719,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -752,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -763,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -796,182 +752,51 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>40</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +818,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AC087-E311-45D1-AB9B-6785718EEA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA12075-D197-40C3-B828-E9E901BC4B4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>GunID[.!][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BulletName[.][funcStr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应子弹名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,18 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gun:Gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet_Cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxSpeed[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +163,22 @@
   </si>
   <si>
     <t>子弹偏转角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentName[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应组件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +507,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,8 +522,8 @@
     <col min="8" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -543,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -552,16 +544,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -576,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -587,40 +579,40 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -628,10 +620,10 @@
         <v>10000</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -664,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -672,10 +664,10 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -708,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -716,10 +708,10 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -760,10 +752,10 @@
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -796,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +810,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/xlsx/Config.xlsx
+++ b/xlsx/xlsx/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CocosCreator3D\Tiledmap\xlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA12075-D197-40C3-B828-E9E901BC4B4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D7B5B9-10B1-473B-932E-B69AA7531C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
